--- a/templates/spismat.xlsx
+++ b/templates/spismat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -191,6 +191,12 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -594,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,6 +887,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,7 +1204,7 @@
   <dimension ref="A1:FE31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CP27" sqref="CP27:DL27"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2529,7 +2544,7 @@
   <dimension ref="A1:FE26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BD23" sqref="BD23:BN23"/>
+      <selection activeCell="AH12" sqref="AH12:AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2750,116 +2765,116 @@
       <c r="AE4" s="88"/>
       <c r="AF4" s="88"/>
       <c r="AG4" s="89"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="57"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="57"/>
-      <c r="CV4" s="56"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37"/>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="57"/>
-      <c r="DG4" s="56"/>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="57"/>
-      <c r="DR4" s="56"/>
-      <c r="DS4" s="37"/>
-      <c r="DT4" s="37"/>
-      <c r="DU4" s="37"/>
-      <c r="DV4" s="37"/>
-      <c r="DW4" s="37"/>
-      <c r="DX4" s="37"/>
-      <c r="DY4" s="37"/>
-      <c r="DZ4" s="37"/>
-      <c r="EA4" s="37"/>
-      <c r="EB4" s="57"/>
-      <c r="EC4" s="56"/>
-      <c r="ED4" s="37"/>
-      <c r="EE4" s="37"/>
-      <c r="EF4" s="37"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="37"/>
-      <c r="EI4" s="37"/>
-      <c r="EJ4" s="37"/>
-      <c r="EK4" s="37"/>
-      <c r="EL4" s="37"/>
-      <c r="EM4" s="57"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="106"/>
+      <c r="BN4" s="107"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="106"/>
+      <c r="BV4" s="106"/>
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="107"/>
+      <c r="BZ4" s="105"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="106"/>
+      <c r="CH4" s="106"/>
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="107"/>
+      <c r="CK4" s="105"/>
+      <c r="CL4" s="106"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="106"/>
+      <c r="CO4" s="106"/>
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="106"/>
+      <c r="CS4" s="106"/>
+      <c r="CT4" s="106"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="105"/>
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="106"/>
+      <c r="DA4" s="106"/>
+      <c r="DB4" s="106"/>
+      <c r="DC4" s="106"/>
+      <c r="DD4" s="106"/>
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="107"/>
+      <c r="DG4" s="105"/>
+      <c r="DH4" s="106"/>
+      <c r="DI4" s="106"/>
+      <c r="DJ4" s="106"/>
+      <c r="DK4" s="106"/>
+      <c r="DL4" s="106"/>
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="106"/>
+      <c r="DQ4" s="107"/>
+      <c r="DR4" s="105"/>
+      <c r="DS4" s="106"/>
+      <c r="DT4" s="106"/>
+      <c r="DU4" s="106"/>
+      <c r="DV4" s="106"/>
+      <c r="DW4" s="106"/>
+      <c r="DX4" s="106"/>
+      <c r="DY4" s="106"/>
+      <c r="DZ4" s="106"/>
+      <c r="EA4" s="106"/>
+      <c r="EB4" s="107"/>
+      <c r="EC4" s="105"/>
+      <c r="ED4" s="106"/>
+      <c r="EE4" s="106"/>
+      <c r="EF4" s="106"/>
+      <c r="EG4" s="106"/>
+      <c r="EH4" s="106"/>
+      <c r="EI4" s="106"/>
+      <c r="EJ4" s="106"/>
+      <c r="EK4" s="106"/>
+      <c r="EL4" s="106"/>
+      <c r="EM4" s="107"/>
       <c r="EN4" s="93"/>
       <c r="EO4" s="94"/>
       <c r="EP4" s="94"/>
@@ -3366,7 +3381,9 @@
       <c r="DZ7" s="63"/>
       <c r="EA7" s="63"/>
       <c r="EB7" s="64"/>
-      <c r="EC7" s="62"/>
+      <c r="EC7" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="ED7" s="63"/>
       <c r="EE7" s="63"/>
       <c r="EF7" s="63"/>
@@ -3553,7 +3570,9 @@
       <c r="DZ8" s="68"/>
       <c r="EA8" s="68"/>
       <c r="EB8" s="68"/>
-      <c r="EC8" s="68"/>
+      <c r="EC8" s="68">
+        <v>12</v>
+      </c>
       <c r="ED8" s="68"/>
       <c r="EE8" s="68"/>
       <c r="EF8" s="68"/>
@@ -5903,7 +5922,10 @@
         <v>32</v>
       </c>
       <c r="AG23" s="14"/>
-      <c r="AH23" s="60"/>
+      <c r="AH23" s="60">
+        <f>IF(SUM(AH9:AR22)=0,0,SUM(AH9:AR22))</f>
+        <v>0</v>
+      </c>
       <c r="AI23" s="60"/>
       <c r="AJ23" s="60"/>
       <c r="AK23" s="60"/>
@@ -5914,7 +5936,10 @@
       <c r="AP23" s="60"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
+      <c r="AS23" s="60">
+        <f t="shared" ref="AS23" si="0">IF(SUM(AS9:BC22)=0,0,SUM(AS9:BC22))</f>
+        <v>0</v>
+      </c>
       <c r="AT23" s="60"/>
       <c r="AU23" s="60"/>
       <c r="AV23" s="60"/>
@@ -5925,7 +5950,10 @@
       <c r="BA23" s="60"/>
       <c r="BB23" s="60"/>
       <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
+      <c r="BD23" s="60">
+        <f t="shared" ref="BD23" si="1">IF(SUM(BD9:BN22)=0,0,SUM(BD9:BN22))</f>
+        <v>0</v>
+      </c>
       <c r="BE23" s="60"/>
       <c r="BF23" s="60"/>
       <c r="BG23" s="60"/>
@@ -5936,7 +5964,10 @@
       <c r="BL23" s="60"/>
       <c r="BM23" s="60"/>
       <c r="BN23" s="60"/>
-      <c r="BO23" s="60"/>
+      <c r="BO23" s="60">
+        <f t="shared" ref="BO23" si="2">IF(SUM(BO9:BY22)=0,0,SUM(BO9:BY22))</f>
+        <v>0</v>
+      </c>
       <c r="BP23" s="60"/>
       <c r="BQ23" s="60"/>
       <c r="BR23" s="60"/>
@@ -5947,7 +5978,10 @@
       <c r="BW23" s="60"/>
       <c r="BX23" s="60"/>
       <c r="BY23" s="60"/>
-      <c r="BZ23" s="60"/>
+      <c r="BZ23" s="60">
+        <f t="shared" ref="BZ23" si="3">IF(SUM(BZ9:CJ22)=0,0,SUM(BZ9:CJ22))</f>
+        <v>0</v>
+      </c>
       <c r="CA23" s="60"/>
       <c r="CB23" s="60"/>
       <c r="CC23" s="60"/>
@@ -5958,7 +5992,10 @@
       <c r="CH23" s="60"/>
       <c r="CI23" s="60"/>
       <c r="CJ23" s="60"/>
-      <c r="CK23" s="60"/>
+      <c r="CK23" s="60">
+        <f t="shared" ref="CK23" si="4">IF(SUM(CK9:CU22)=0,0,SUM(CK9:CU22))</f>
+        <v>0</v>
+      </c>
       <c r="CL23" s="60"/>
       <c r="CM23" s="60"/>
       <c r="CN23" s="60"/>
@@ -5969,7 +6006,10 @@
       <c r="CS23" s="60"/>
       <c r="CT23" s="60"/>
       <c r="CU23" s="60"/>
-      <c r="CV23" s="60"/>
+      <c r="CV23" s="60">
+        <f t="shared" ref="CV23" si="5">IF(SUM(CV9:DF22)=0,0,SUM(CV9:DF22))</f>
+        <v>0</v>
+      </c>
       <c r="CW23" s="60"/>
       <c r="CX23" s="60"/>
       <c r="CY23" s="60"/>
@@ -5980,7 +6020,10 @@
       <c r="DD23" s="60"/>
       <c r="DE23" s="60"/>
       <c r="DF23" s="60"/>
-      <c r="DG23" s="60"/>
+      <c r="DG23" s="60">
+        <f t="shared" ref="DG23" si="6">IF(SUM(DG9:DQ22)=0,0,SUM(DG9:DQ22))</f>
+        <v>0</v>
+      </c>
       <c r="DH23" s="60"/>
       <c r="DI23" s="60"/>
       <c r="DJ23" s="60"/>
@@ -5991,7 +6034,10 @@
       <c r="DO23" s="60"/>
       <c r="DP23" s="60"/>
       <c r="DQ23" s="60"/>
-      <c r="DR23" s="60"/>
+      <c r="DR23" s="60">
+        <f t="shared" ref="DR23" si="7">IF(SUM(DR9:EB22)=0,0,SUM(DR9:EB22))</f>
+        <v>0</v>
+      </c>
       <c r="DS23" s="60"/>
       <c r="DT23" s="60"/>
       <c r="DU23" s="60"/>
@@ -6002,7 +6048,10 @@
       <c r="DZ23" s="60"/>
       <c r="EA23" s="60"/>
       <c r="EB23" s="60"/>
-      <c r="EC23" s="60"/>
+      <c r="EC23" s="60">
+        <f t="shared" ref="EC23" si="8">IF(SUM(EC9:EM22)=0,0,SUM(EC9:EM22))</f>
+        <v>0</v>
+      </c>
       <c r="ED23" s="60"/>
       <c r="EE23" s="60"/>
       <c r="EF23" s="60"/>
@@ -6396,7 +6445,10 @@
         <v>34</v>
       </c>
       <c r="AG26" s="18"/>
-      <c r="AH26" s="30"/>
+      <c r="AH26" s="30" t="str">
+        <f>IF(OR(ISBLANK(AH23),ISBLANK(AH25)),"",AH23*AH25)</f>
+        <v/>
+      </c>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="58"/>
@@ -6407,7 +6459,10 @@
       <c r="AP26" s="58"/>
       <c r="AQ26" s="58"/>
       <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
+      <c r="AS26" s="30" t="str">
+        <f t="shared" ref="AS26" si="9">IF(OR(ISBLANK(AS23),ISBLANK(AS25)),"",AS23*AS25)</f>
+        <v/>
+      </c>
       <c r="AT26" s="58"/>
       <c r="AU26" s="58"/>
       <c r="AV26" s="58"/>
@@ -6418,7 +6473,10 @@
       <c r="BA26" s="58"/>
       <c r="BB26" s="58"/>
       <c r="BC26" s="58"/>
-      <c r="BD26" s="58"/>
+      <c r="BD26" s="30" t="str">
+        <f t="shared" ref="BD26" si="10">IF(OR(ISBLANK(BD23),ISBLANK(BD25)),"",BD23*BD25)</f>
+        <v/>
+      </c>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="58"/>
@@ -6429,7 +6487,10 @@
       <c r="BL26" s="58"/>
       <c r="BM26" s="58"/>
       <c r="BN26" s="58"/>
-      <c r="BO26" s="58"/>
+      <c r="BO26" s="30" t="str">
+        <f t="shared" ref="BO26" si="11">IF(OR(ISBLANK(BO23),ISBLANK(BO25)),"",BO23*BO25)</f>
+        <v/>
+      </c>
       <c r="BP26" s="58"/>
       <c r="BQ26" s="58"/>
       <c r="BR26" s="58"/>
@@ -6440,7 +6501,10 @@
       <c r="BW26" s="58"/>
       <c r="BX26" s="58"/>
       <c r="BY26" s="58"/>
-      <c r="BZ26" s="58"/>
+      <c r="BZ26" s="30" t="str">
+        <f t="shared" ref="BZ26" si="12">IF(OR(ISBLANK(BZ23),ISBLANK(BZ25)),"",BZ23*BZ25)</f>
+        <v/>
+      </c>
       <c r="CA26" s="58"/>
       <c r="CB26" s="58"/>
       <c r="CC26" s="58"/>
@@ -6451,7 +6515,10 @@
       <c r="CH26" s="58"/>
       <c r="CI26" s="58"/>
       <c r="CJ26" s="58"/>
-      <c r="CK26" s="58"/>
+      <c r="CK26" s="30" t="str">
+        <f t="shared" ref="CK26" si="13">IF(OR(ISBLANK(CK23),ISBLANK(CK25)),"",CK23*CK25)</f>
+        <v/>
+      </c>
       <c r="CL26" s="58"/>
       <c r="CM26" s="58"/>
       <c r="CN26" s="58"/>
@@ -6462,7 +6529,10 @@
       <c r="CS26" s="58"/>
       <c r="CT26" s="58"/>
       <c r="CU26" s="58"/>
-      <c r="CV26" s="58"/>
+      <c r="CV26" s="30" t="str">
+        <f t="shared" ref="CV26" si="14">IF(OR(ISBLANK(CV23),ISBLANK(CV25)),"",CV23*CV25)</f>
+        <v/>
+      </c>
       <c r="CW26" s="58"/>
       <c r="CX26" s="58"/>
       <c r="CY26" s="58"/>
@@ -6473,7 +6543,10 @@
       <c r="DD26" s="58"/>
       <c r="DE26" s="58"/>
       <c r="DF26" s="58"/>
-      <c r="DG26" s="58"/>
+      <c r="DG26" s="30" t="str">
+        <f t="shared" ref="DG26" si="15">IF(OR(ISBLANK(DG23),ISBLANK(DG25)),"",DG23*DG25)</f>
+        <v/>
+      </c>
       <c r="DH26" s="58"/>
       <c r="DI26" s="58"/>
       <c r="DJ26" s="58"/>
@@ -6484,7 +6557,10 @@
       <c r="DO26" s="58"/>
       <c r="DP26" s="58"/>
       <c r="DQ26" s="58"/>
-      <c r="DR26" s="58"/>
+      <c r="DR26" s="30" t="str">
+        <f t="shared" ref="DR26" si="16">IF(OR(ISBLANK(DR23),ISBLANK(DR25)),"",DR23*DR25)</f>
+        <v/>
+      </c>
       <c r="DS26" s="58"/>
       <c r="DT26" s="58"/>
       <c r="DU26" s="58"/>
@@ -6495,7 +6571,10 @@
       <c r="DZ26" s="58"/>
       <c r="EA26" s="58"/>
       <c r="EB26" s="58"/>
-      <c r="EC26" s="58"/>
+      <c r="EC26" s="30" t="str">
+        <f t="shared" ref="EC26" si="17">IF(OR(ISBLANK(EC23),ISBLANK(EC25)),"",EC23*EC25)</f>
+        <v/>
+      </c>
       <c r="ED26" s="58"/>
       <c r="EE26" s="58"/>
       <c r="EF26" s="58"/>
@@ -6728,10 +6807,6 @@
     <mergeCell ref="AS20:BC20"/>
     <mergeCell ref="AH20:AR20"/>
     <mergeCell ref="AA20:AG20"/>
-    <mergeCell ref="AS11:BC11"/>
-    <mergeCell ref="BD11:BN11"/>
-    <mergeCell ref="BO11:BY11"/>
-    <mergeCell ref="BZ11:CJ11"/>
     <mergeCell ref="CK11:CU11"/>
     <mergeCell ref="CV11:DF11"/>
     <mergeCell ref="A20:Z20"/>
@@ -6767,6 +6842,10 @@
     <mergeCell ref="A11:Z11"/>
     <mergeCell ref="AA11:AG11"/>
     <mergeCell ref="AH11:AR11"/>
+    <mergeCell ref="AS11:BC11"/>
+    <mergeCell ref="BD11:BN11"/>
+    <mergeCell ref="BO11:BY11"/>
+    <mergeCell ref="BZ11:CJ11"/>
     <mergeCell ref="CK9:CU9"/>
     <mergeCell ref="CV9:DF9"/>
     <mergeCell ref="DG13:DQ13"/>

--- a/templates/spismat.xlsx
+++ b/templates/spismat.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'страница 1'!$A$1:$FF$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">страница2!$A$1:$FF$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">страница2!$A$1:$FF$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -870,6 +870,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -887,15 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,9 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2544,7 +2542,7 @@
   <dimension ref="A1:FE26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12:AR12"/>
+      <selection activeCell="BU29" sqref="BU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2579,25 +2577,25 @@
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
       <c r="P3" s="74"/>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="101"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="104"/>
       <c r="AH3" s="84"/>
       <c r="AI3" s="85"/>
       <c r="AJ3" s="85"/>
@@ -2765,116 +2763,116 @@
       <c r="AE4" s="88"/>
       <c r="AF4" s="88"/>
       <c r="AG4" s="89"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="107"/>
-      <c r="BO4" s="105"/>
-      <c r="BP4" s="106"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="106"/>
-      <c r="BU4" s="106"/>
-      <c r="BV4" s="106"/>
-      <c r="BW4" s="106"/>
-      <c r="BX4" s="106"/>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="105"/>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="106"/>
-      <c r="CD4" s="106"/>
-      <c r="CE4" s="106"/>
-      <c r="CF4" s="106"/>
-      <c r="CG4" s="106"/>
-      <c r="CH4" s="106"/>
-      <c r="CI4" s="106"/>
-      <c r="CJ4" s="107"/>
-      <c r="CK4" s="105"/>
-      <c r="CL4" s="106"/>
-      <c r="CM4" s="106"/>
-      <c r="CN4" s="106"/>
-      <c r="CO4" s="106"/>
-      <c r="CP4" s="106"/>
-      <c r="CQ4" s="106"/>
-      <c r="CR4" s="106"/>
-      <c r="CS4" s="106"/>
-      <c r="CT4" s="106"/>
-      <c r="CU4" s="107"/>
-      <c r="CV4" s="105"/>
-      <c r="CW4" s="106"/>
-      <c r="CX4" s="106"/>
-      <c r="CY4" s="106"/>
-      <c r="CZ4" s="106"/>
-      <c r="DA4" s="106"/>
-      <c r="DB4" s="106"/>
-      <c r="DC4" s="106"/>
-      <c r="DD4" s="106"/>
-      <c r="DE4" s="106"/>
-      <c r="DF4" s="107"/>
-      <c r="DG4" s="105"/>
-      <c r="DH4" s="106"/>
-      <c r="DI4" s="106"/>
-      <c r="DJ4" s="106"/>
-      <c r="DK4" s="106"/>
-      <c r="DL4" s="106"/>
-      <c r="DM4" s="106"/>
-      <c r="DN4" s="106"/>
-      <c r="DO4" s="106"/>
-      <c r="DP4" s="106"/>
-      <c r="DQ4" s="107"/>
-      <c r="DR4" s="105"/>
-      <c r="DS4" s="106"/>
-      <c r="DT4" s="106"/>
-      <c r="DU4" s="106"/>
-      <c r="DV4" s="106"/>
-      <c r="DW4" s="106"/>
-      <c r="DX4" s="106"/>
-      <c r="DY4" s="106"/>
-      <c r="DZ4" s="106"/>
-      <c r="EA4" s="106"/>
-      <c r="EB4" s="107"/>
-      <c r="EC4" s="105"/>
-      <c r="ED4" s="106"/>
-      <c r="EE4" s="106"/>
-      <c r="EF4" s="106"/>
-      <c r="EG4" s="106"/>
-      <c r="EH4" s="106"/>
-      <c r="EI4" s="106"/>
-      <c r="EJ4" s="106"/>
-      <c r="EK4" s="106"/>
-      <c r="EL4" s="106"/>
-      <c r="EM4" s="107"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="100"/>
+      <c r="BJ4" s="100"/>
+      <c r="BK4" s="100"/>
+      <c r="BL4" s="100"/>
+      <c r="BM4" s="100"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="100"/>
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="100"/>
+      <c r="BS4" s="100"/>
+      <c r="BT4" s="100"/>
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="100"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="99"/>
+      <c r="CA4" s="100"/>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="100"/>
+      <c r="CG4" s="100"/>
+      <c r="CH4" s="100"/>
+      <c r="CI4" s="100"/>
+      <c r="CJ4" s="101"/>
+      <c r="CK4" s="99"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="100"/>
+      <c r="CO4" s="100"/>
+      <c r="CP4" s="100"/>
+      <c r="CQ4" s="100"/>
+      <c r="CR4" s="100"/>
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="101"/>
+      <c r="CV4" s="99"/>
+      <c r="CW4" s="100"/>
+      <c r="CX4" s="100"/>
+      <c r="CY4" s="100"/>
+      <c r="CZ4" s="100"/>
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="100"/>
+      <c r="DD4" s="100"/>
+      <c r="DE4" s="100"/>
+      <c r="DF4" s="101"/>
+      <c r="DG4" s="99"/>
+      <c r="DH4" s="100"/>
+      <c r="DI4" s="100"/>
+      <c r="DJ4" s="100"/>
+      <c r="DK4" s="100"/>
+      <c r="DL4" s="100"/>
+      <c r="DM4" s="100"/>
+      <c r="DN4" s="100"/>
+      <c r="DO4" s="100"/>
+      <c r="DP4" s="100"/>
+      <c r="DQ4" s="101"/>
+      <c r="DR4" s="99"/>
+      <c r="DS4" s="100"/>
+      <c r="DT4" s="100"/>
+      <c r="DU4" s="100"/>
+      <c r="DV4" s="100"/>
+      <c r="DW4" s="100"/>
+      <c r="DX4" s="100"/>
+      <c r="DY4" s="100"/>
+      <c r="DZ4" s="100"/>
+      <c r="EA4" s="100"/>
+      <c r="EB4" s="101"/>
+      <c r="EC4" s="99"/>
+      <c r="ED4" s="100"/>
+      <c r="EE4" s="100"/>
+      <c r="EF4" s="100"/>
+      <c r="EG4" s="100"/>
+      <c r="EH4" s="100"/>
+      <c r="EI4" s="100"/>
+      <c r="EJ4" s="100"/>
+      <c r="EK4" s="100"/>
+      <c r="EL4" s="100"/>
+      <c r="EM4" s="101"/>
       <c r="EN4" s="93"/>
       <c r="EO4" s="94"/>
       <c r="EP4" s="94"/>
@@ -3078,25 +3076,25 @@
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="77"/>
-      <c r="Q6" s="102" t="s">
+      <c r="Q6" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="107"/>
       <c r="AH6" s="69"/>
       <c r="AI6" s="70"/>
       <c r="AJ6" s="70"/>
